--- a/data/dc_fi_fund.xlsx
+++ b/data/dc_fi_fund.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pratyusatripathy/my_work/fund_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FE19CF-8D44-6F4E-AE09-7E798B53FE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB11644C-AFCB-144C-B7AC-CF07B29275B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="20460" xr2:uid="{13BD8685-10F8-554F-9C86-04E35025B8F3}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{13BD8685-10F8-554F-9C86-04E35025B8F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance Data" sheetId="2" r:id="rId1"/>
@@ -542,7 +542,7 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -588,8 +588,8 @@
       <c r="B2" s="3">
         <v>5.4302715135756E-3</v>
       </c>
-      <c r="C2" s="9">
-        <v>1.0860737976058099E-2</v>
+      <c r="C2" s="10">
+        <v>7.77711045692355E-2</v>
       </c>
       <c r="D2" s="3">
         <v>5.2949999999999994E-3</v>
@@ -613,8 +613,8 @@
       <c r="B3" s="3">
         <v>7.1475462014363653E-3</v>
       </c>
-      <c r="C3" s="10">
-        <v>4.1132625892879001E-3</v>
+      <c r="C3" s="9">
+        <v>1.0860737976058099E-2</v>
       </c>
       <c r="D3" s="3">
         <v>2.4940000000000001E-3</v>
@@ -638,7 +638,7 @@
         <v>1.169997807550315E-2</v>
       </c>
       <c r="C4" s="10">
-        <v>6.9716580982802603E-2</v>
+        <v>4.1132625892879001E-3</v>
       </c>
       <c r="D4" s="3">
         <v>7.0009999999999994E-3</v>
@@ -662,7 +662,7 @@
         <v>7.4000000000000003E-3</v>
       </c>
       <c r="C5" s="10">
-        <v>1.8690003753757099E-2</v>
+        <v>6.9716580982802603E-2</v>
       </c>
       <c r="D5" s="3">
         <v>3.8629999999999997E-3</v>
@@ -685,8 +685,8 @@
       <c r="B6" s="3">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="C6" s="9">
-        <v>1.41536897753169E-2</v>
+      <c r="C6" s="10">
+        <v>1.8690003753757099E-2</v>
       </c>
       <c r="D6" s="3">
         <v>4.2199999999999998E-3</v>
@@ -709,8 +709,8 @@
       <c r="B7" s="3">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="C7" s="10">
-        <v>6.5254191378694995E-2</v>
+      <c r="C7" s="9">
+        <v>1.41536897753169E-2</v>
       </c>
       <c r="D7" s="3">
         <v>4.8010000000000006E-3</v>
@@ -734,7 +734,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="C8" s="10">
-        <v>3.4127099884859E-2</v>
+        <v>6.5254191378694995E-2</v>
       </c>
       <c r="D8" s="3">
         <v>1.722E-3</v>
@@ -758,7 +758,7 @@
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="C9" s="10">
-        <v>2.27534975911991E-3</v>
+        <v>3.4127099884859E-2</v>
       </c>
       <c r="D9" s="3">
         <v>1.81E-3</v>
@@ -782,7 +782,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="C10" s="10">
-        <v>-2.9068353182989701E-2</v>
+        <v>2.27534975911991E-3</v>
       </c>
       <c r="D10" s="3">
         <v>1.7819999999999999E-3</v>
@@ -805,8 +805,8 @@
       <c r="B11" s="3">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="C11" s="9">
-        <v>2.37467741430104E-2</v>
+      <c r="C11" s="10">
+        <v>-2.9068353182989701E-2</v>
       </c>
       <c r="D11" s="3">
         <v>3.271E-3</v>
@@ -829,8 +829,8 @@
       <c r="B12" s="3">
         <v>-2.2000000000000001E-3</v>
       </c>
-      <c r="C12" s="10">
-        <v>-4.9846025247704999E-3</v>
+      <c r="C12" s="9">
+        <v>2.37467741430104E-2</v>
       </c>
       <c r="D12" s="3">
         <v>3.2650000000000001E-3</v>
@@ -854,7 +854,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="C13" s="10">
-        <v>-4.1115294990786699E-2</v>
+        <v>-4.9846025247704999E-3</v>
       </c>
       <c r="D13" s="3">
         <v>3.4989999999999999E-3</v>
@@ -878,7 +878,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="C14" s="10">
-        <v>4.09946624611758E-2</v>
+        <v>-4.1115294990786699E-2</v>
       </c>
       <c r="D14" s="3">
         <v>3.5659999999999997E-3</v>
@@ -902,7 +902,7 @@
         <v>1.03E-2</v>
       </c>
       <c r="C15" s="10">
-        <v>-7.4625221643819196E-3</v>
+        <v>4.09946624611758E-2</v>
       </c>
       <c r="D15" s="3">
         <v>2.1609999999999997E-3</v>
@@ -926,7 +926,7 @@
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="C16" s="10">
-        <v>-4.4898478213623402E-2</v>
+        <v>-7.4625221643819196E-3</v>
       </c>
       <c r="D16" s="3">
         <v>4.1589999999999995E-3</v>
@@ -950,7 +950,7 @@
         <v>-1.6000000000000001E-3</v>
       </c>
       <c r="C17" s="10">
-        <v>-5.1846356155303197E-2</v>
+        <v>-4.4898478213623402E-2</v>
       </c>
       <c r="D17" s="3">
         <v>3.2009999999999999E-3</v>
@@ -974,7 +974,7 @@
         <v>1.0699999999999999E-2</v>
       </c>
       <c r="C18" s="10">
-        <v>9.5469322589311498E-2</v>
+        <v>-5.1846356155303197E-2</v>
       </c>
       <c r="D18" s="3">
         <v>3.2650000000000001E-3</v>
@@ -998,7 +998,7 @@
         <v>1.0699999999999999E-2</v>
       </c>
       <c r="C19" s="10">
-        <v>4.4962159747698703E-2</v>
+        <v>9.5469322589311498E-2</v>
       </c>
       <c r="D19" s="3">
         <v>7.3400000000000006E-4</v>
@@ -1022,7 +1022,7 @@
         <v>1.29E-2</v>
       </c>
       <c r="C20" s="10">
-        <v>-3.2345727316232899E-2</v>
+        <v>4.4962159747698703E-2</v>
       </c>
       <c r="D20" s="3">
         <v>3.5739999999999999E-3</v>
@@ -1046,7 +1046,7 @@
         <v>-2.8999999999999998E-3</v>
       </c>
       <c r="C21" s="10">
-        <v>4.0099546704384002E-2</v>
+        <v>-3.2345727316232899E-2</v>
       </c>
       <c r="D21" s="3">
         <v>4.0879999999999996E-3</v>
@@ -1069,8 +1069,8 @@
       <c r="B22" s="3">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="C22" s="9">
-        <v>3.3853156436669002E-2</v>
+      <c r="C22" s="10">
+        <v>4.0099546704384002E-2</v>
       </c>
       <c r="D22" s="3">
         <v>2.6829999999999996E-3</v>
@@ -1093,8 +1093,8 @@
       <c r="B23" s="3">
         <v>1.34E-2</v>
       </c>
-      <c r="C23" s="10">
-        <v>-3.11862994284283E-2</v>
+      <c r="C23" s="9">
+        <v>3.3853156436669002E-2</v>
       </c>
       <c r="D23" s="3">
         <v>3.6540000000000001E-3</v>
@@ -1118,7 +1118,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="C24" s="10">
-        <v>-3.3228967026412301E-2</v>
+        <v>-3.11862994284283E-2</v>
       </c>
       <c r="D24" s="3">
         <v>6.8950000000000001E-3</v>
@@ -1142,7 +1142,7 @@
         <v>1.06E-2</v>
       </c>
       <c r="C25" s="10">
-        <v>-2.7902046380224501E-2</v>
+        <v>-3.3228967026412301E-2</v>
       </c>
       <c r="D25" s="3">
         <v>5.2049999999999996E-3</v>
@@ -1166,7 +1166,7 @@
         <v>-3.8E-3</v>
       </c>
       <c r="C26" s="10">
-        <v>2.6930424020663499E-3</v>
+        <v>-2.7902046380224501E-2</v>
       </c>
       <c r="D26" s="3">
         <v>5.5400000000000007E-3</v>
@@ -1190,7 +1190,7 @@
         <v>1.8E-3</v>
       </c>
       <c r="C27" s="10">
-        <v>4.5453155037841399E-2</v>
+        <v>2.6930424020663499E-3</v>
       </c>
       <c r="D27" s="3">
         <v>8.2100000000000003E-3</v>
@@ -1214,7 +1214,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="C28" s="10">
-        <v>3.5930799067990397E-2</v>
+        <v>4.5453155037841399E-2</v>
       </c>
       <c r="D28" s="3">
         <v>4.7879999999999997E-3</v>
@@ -1237,8 +1237,8 @@
       <c r="B29" s="3">
         <v>1.01E-2</v>
       </c>
-      <c r="C29" s="9">
-        <v>4.2089480980680202E-2</v>
+      <c r="C29" s="10">
+        <v>3.5930799067990397E-2</v>
       </c>
       <c r="D29" s="3">
         <v>5.9389999999999998E-3</v>
@@ -1262,7 +1262,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="C30" s="9">
-        <v>3.8283627510651203E-2</v>
+        <v>4.2089480980680202E-2</v>
       </c>
       <c r="D30" s="3">
         <v>6.8530000000000006E-3</v>
@@ -1285,8 +1285,8 @@
       <c r="B31" s="3">
         <v>2.87E-2</v>
       </c>
-      <c r="C31" s="10">
-        <v>-7.8960794155578107E-3</v>
+      <c r="C31" s="9">
+        <v>3.8283627510651203E-2</v>
       </c>
       <c r="D31" s="3">
         <v>5.6520000000000008E-3</v>
@@ -1310,7 +1310,7 @@
         <v>2.0500000000000001E-2</v>
       </c>
       <c r="C32" s="10">
-        <v>2.1761538800647299E-2</v>
+        <v>-7.8960794155578107E-3</v>
       </c>
       <c r="D32" s="3">
         <v>8.6370000000000006E-3</v>
@@ -1334,7 +1334,7 @@
         <v>2.5899999999999999E-2</v>
       </c>
       <c r="C33" s="10">
-        <v>-2.8422562894102901E-2</v>
+        <v>2.1761538800647299E-2</v>
       </c>
       <c r="D33" s="3">
         <v>7.0330000000000002E-3</v>
@@ -1358,7 +1358,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C34" s="10">
-        <v>7.0641186408581094E-2</v>
+        <v>-2.8422562894102901E-2</v>
       </c>
       <c r="D34" s="3">
         <v>6.0799999999999995E-3</v>
@@ -1382,7 +1382,7 @@
         <v>2.06E-2</v>
       </c>
       <c r="C35" s="10">
-        <v>8.0120371385790895E-2</v>
+        <v>7.0641186408581094E-2</v>
       </c>
       <c r="D35" s="3">
         <v>6.4970000000000002E-3</v>
@@ -1406,7 +1406,7 @@
         <v>1.8200000000000001E-2</v>
       </c>
       <c r="C36" s="10">
-        <v>1.91953436589773E-2</v>
+        <v>8.0120371385790895E-2</v>
       </c>
       <c r="D36" s="3">
         <v>6.071E-3</v>
@@ -1429,8 +1429,8 @@
       <c r="B37" s="3">
         <v>1.78E-2</v>
       </c>
-      <c r="C37" s="9">
-        <v>1.45414464907889E-2</v>
+      <c r="C37" s="10">
+        <v>1.91953436589773E-2</v>
       </c>
       <c r="D37" s="3">
         <v>6.8019999999999999E-3</v>
@@ -1453,8 +1453,8 @@
       <c r="B38" s="3">
         <v>1.72E-2</v>
       </c>
-      <c r="C38" s="10">
-        <v>8.2179786986444903E-3</v>
+      <c r="C38" s="9">
+        <v>1.45414464907889E-2</v>
       </c>
       <c r="D38" s="3">
         <v>7.1000000000000004E-3</v>
@@ -1478,7 +1478,7 @@
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="C39" s="10">
-        <v>3.6635068800499E-2</v>
+        <v>8.2179786986444903E-3</v>
       </c>
       <c r="D39" s="3">
         <v>6.8999999999999999E-3</v>
@@ -1502,7 +1502,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
       <c r="C40" s="10">
-        <v>5.0531292957041096E-3</v>
+        <v>3.6635068800499E-2</v>
       </c>
       <c r="D40" s="3">
         <v>6.3368161193302353E-3</v>
@@ -1526,7 +1526,7 @@
         <v>1.1900000000000001E-2</v>
       </c>
       <c r="C41" s="10">
-        <v>6.9012826599807994E-2</v>
+        <v>5.0531292957041096E-3</v>
       </c>
       <c r="D41" s="3">
         <v>6.1155211581482849E-3</v>
@@ -1550,7 +1550,7 @@
         <v>2.06E-2</v>
       </c>
       <c r="C42" s="10">
-        <v>4.3045855934678898E-2</v>
+        <v>6.9012826599807994E-2</v>
       </c>
       <c r="D42" s="3">
         <v>7.451987053460396E-3</v>
@@ -1574,7 +1574,7 @@
         <v>1.49E-2</v>
       </c>
       <c r="C43" s="10">
-        <v>8.6588638395321792E-3</v>
+        <v>4.3045855934678898E-2</v>
       </c>
       <c r="D43" s="3">
         <v>3.5365198939893983E-3</v>
@@ -1597,8 +1597,8 @@
       <c r="B44" s="3">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="C44" s="9">
-        <v>2.15149821964781E-2</v>
+      <c r="C44" s="10">
+        <v>8.6588638395321792E-3</v>
       </c>
       <c r="D44" s="3">
         <v>4.7978125371512803E-3</v>
@@ -1621,8 +1621,8 @@
       <c r="B45" s="3">
         <v>1.2E-2</v>
       </c>
-      <c r="C45" s="10">
-        <v>-6.4171450823624701E-2</v>
+      <c r="C45" s="9">
+        <v>2.15149821964781E-2</v>
       </c>
       <c r="D45" s="3">
         <v>4.5593989537469071E-3</v>
@@ -1646,7 +1646,7 @@
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="C46" s="10">
-        <v>-1.03555607166017E-4</v>
+        <v>-6.4171450823624701E-2</v>
       </c>
       <c r="D46" s="3">
         <v>5.0434731400352817E-3</v>
@@ -1670,7 +1670,7 @@
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="C47" s="10">
-        <v>-1.37347207376471E-2</v>
+        <v>-1.03555607166017E-4</v>
       </c>
       <c r="D47" s="3">
         <v>6.8638775886025183E-3</v>
@@ -1694,7 +1694,7 @@
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="C48" s="10">
-        <v>-3.5507744493049803E-2</v>
+        <v>-1.37347207376471E-2</v>
       </c>
       <c r="D48" s="3">
         <v>7.0997456063051079E-3</v>
@@ -1718,7 +1718,7 @@
         <v>1.18E-2</v>
       </c>
       <c r="C49" s="10">
-        <v>-7.8773358350632094E-2</v>
+        <v>-3.5507744493049803E-2</v>
       </c>
       <c r="D49" s="6">
         <v>7.3509988443123397E-3</v>
@@ -1742,7 +1742,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="C50" s="10">
-        <v>7.3369433072198106E-2</v>
+        <v>-7.8773358350632094E-2</v>
       </c>
       <c r="D50" s="3">
         <v>7.207214589795008E-3</v>
@@ -1765,8 +1765,8 @@
       <c r="B51" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="C51" s="9">
-        <v>3.2357757062379602E-2</v>
+      <c r="C51" s="10">
+        <v>7.3369433072198106E-2</v>
       </c>
       <c r="D51" s="3">
         <v>5.6667480270118364E-3</v>
@@ -1790,7 +1790,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C52" s="9">
-        <v>3.5038432056496698E-2</v>
+        <v>3.2357757062379602E-2</v>
       </c>
       <c r="D52" s="3">
         <v>6.6663160917912467E-3</v>
@@ -1813,8 +1813,8 @@
       <c r="B53" s="3">
         <v>2.8E-3</v>
       </c>
-      <c r="C53" s="10">
-        <v>3.5753522305436103E-2</v>
+      <c r="C53" s="9">
+        <v>3.5038432056496698E-2</v>
       </c>
       <c r="D53" s="6">
         <v>6.1761384869465363E-3</v>
@@ -1838,7 +1838,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="C54" s="10">
-        <v>-2.97346858742875E-2</v>
+        <v>3.5753522305436103E-2</v>
       </c>
       <c r="D54" s="3">
         <v>5.5032388437608049E-3</v>
@@ -1862,7 +1862,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="C55" s="10">
-        <v>-1.9725114626488099E-2</v>
+        <v>-2.97346858742875E-2</v>
       </c>
       <c r="D55" s="3">
         <v>5.504893238434061E-3</v>
@@ -1885,8 +1885,8 @@
       <c r="B56" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C56" s="9">
-        <v>3.23777957278608E-2</v>
+      <c r="C56" s="10">
+        <v>-1.9725114626488099E-2</v>
       </c>
       <c r="D56" s="3">
         <v>5.1982525023503978E-3</v>
@@ -1902,7 +1902,8 @@
         <v>4.8675505653430484E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="C57" s="9"/>
       <c r="D57" s="8"/>
     </row>
   </sheetData>
